--- a/UserStories/vasiliki/User_Stories.xlsx
+++ b/UserStories/vasiliki/User_Stories.xlsx
@@ -264,7 +264,7 @@
     <t xml:space="preserve">Ως &lt;ταυτοποιημένος χρήστης &gt;, θέλω να &lt;βλεπω τη δηλωσή μου … &gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Πατώντας την επιλογή  Δήλωση στο συστημα,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που δήλωσε.</t>
+    <t xml:space="preserve">Πατώντας την επιλογή “ Δήλωση” από το μενόυ,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δήλωσει.</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
@@ -862,13 +862,13 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="12.71"/>

--- a/UserStories/vasiliki/User_Stories.xlsx
+++ b/UserStories/vasiliki/User_Stories.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Διεργασία" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Product backlog Pithia" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="acceptance" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -264,7 +265,25 @@
     <t xml:space="preserve">Ως &lt;ταυτοποιημένος χρήστης &gt;, θέλω να &lt;βλεπω τη δηλωσή μου … &gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Πατώντας την επιλογή “ Δήλωση” από το μενόυ,θα μπορέι ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δήλωσει.</t>
+    <t xml:space="preserve">Πατώντας την επιλογή “ Δήλωση” από το μενού,θα μπορεί ο ταυτοποιήμενος χρήστης να δει τα μαθήματα που έχει δηλώσει.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως &lt;ταυτοποιημένος χρήστης &gt;, θέλω να βλέπω τη βαθμολογία των μαθημάτων μου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας  την επιλογή ¨Βαθμολογία” από το μενού,θα μπορεί ο ταυτοποιημένος χρήστης να βλέπει τις βαθμολογίες του.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ως ταυτοποιημένος χρήστης , θέλω να βλέπω  το πρόγραμμα σπουδών.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Πατώντας την επιλογή “Πρόγραμμα Σπουδών” από το μένου,θα μπορεί ο ταυτοποιημένος χρήστης να βλέπει τα μαθήματα που αντιστοιχούν σε κάθε εξάμηνο.</t>
   </si>
 </sst>
 </file>
@@ -862,8 +881,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -999,16 +1018,28 @@
       <c r="E10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="45.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
@@ -1149,4 +1180,27 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12Σελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/UserStories/vasiliki/User_Stories.xlsx
+++ b/UserStories/vasiliki/User_Stories.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t xml:space="preserve"> Βήματα διεργασίας SCRUM</t>
   </si>
@@ -284,6 +284,801 @@
   </si>
   <si>
     <t xml:space="preserve">Πατώντας την επιλογή “Πρόγραμμα Σπουδών” από το μένου,θα μπορεί ο ταυτοποιημένος χρήστης να βλέπει τα μαθήματα που αντιστοιχούν σε κάθε εξάμηνο.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories and acceptance creteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως μη-εγγεγραμμένος χρήστης θέλω να  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">δημιουργήσω λογαριασμό </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">για να έχω πρόσβαση στο σύστημα</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Κριτήρια αποδοχής</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Μη-εγγεγραμμένος χρήστης δημιουργεί λογαριασμό</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">οτι ειμαι μη εγγεγραμμένος χρήστης και ειμαι στην φορμα εισαγωγης,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">εισάγω τα προσωπικά μου στοιχεία (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">ονοματεπώνυμο</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">κινητό, email )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το Username και Password </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπι “Εγγραφη”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">το σύστημα μου δημιουργεί λογαριασμό και μου επιτρέπει  τη πρόσβαση</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως φοιτητής , θέλω να βλέπω τη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Bαθμολογία</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> των μαθημάτων μου.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ο Φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  βλέπει τη βαθμολογία των μαθημάτων του</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ότι είμαι φοιτητής </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπί “ Βαθμολογία “</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα θα μου εμφανίζει τα μαθήματα που έχω εξεταστεί και τη βαθμολογία τους</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως  φοιτητής, θέλω να βλέπω  τη </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Δηλωσή</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> μου</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ο Φοιτητής  βλέπει τα μαθήματα που έχει δηλώσει στο</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">τρέχον εξάμηνο και σε παλαιότερα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ότι είμαι φοιτητής</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Όταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπί “Δήλωση” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα θα μου εμφανίζει τα μαθήματα που έχω δηλώσει καθώς και τις δηλώσεις προηγούμενων εξαμήνων</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Ως καθηγητής,θέλω να έχω δυνατότητα να </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve">Εισάγω  Βαθμολογία</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+      </rPr>
+      <t xml:space="preserve"> στους μαθητές που παρακολουθούν το μάθημα/μαθήματα που διδάσκω.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Σενάριο: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ο καθηγητής  εισάγει τη βαθμολογία των μαθήματων</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">στους φοιτητές</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Δεδομένου</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ότι ειμαι καθηγητής </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατάω το κουμπί “Εισαγωγή βαθμολογίας”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">το σύστημα μου εμφανιζει ενα μενού από το οποίο επιλέγω το [ΜΑΘΗΜΑ] και το τύπο του μαθήματος[ΘΕΩΡΙΑ][ΕΡΓΑΣΤΗΡΙΟ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">επιλέξω το μάθημα στο οποίο θέλω να καταχωρύσω τη βαθμολογία </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα μου εμφανιίζει αυτόματα όλους τους φοιτητές που παρακολουθούν το συγκεκριμένο μάθημα</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Και</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> μόλις πατήσω πάνω στο όνομα κάποιου φοιτητή </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το σύστημα  μου επιτρέπει να καταχωρησω τη βαθμολογία του</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Οταν</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> πατήσω το κουμπί “Επιβεβαίωση Βαθμολογίας “</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Τότε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> το συστημα αποθηκεύει τη βαθμολογία του φοιτητή</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -294,7 +1089,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,8 +1207,102 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,7 +1312,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -461,7 +1362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,6 +1460,82 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,7 +1564,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -615,17 +1592,17 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -881,8 +1858,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1187,14 +2164,223 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="81.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="25" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29"/>
+      <c r="B9" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="43"/>
+      <c r="B35" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
